--- a/dataanalysis/data/predictions/1200/09191239_1242.xlsx
+++ b/dataanalysis/data/predictions/1200/09191239_1242.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-19</t>
   </si>
   <si>
@@ -470,12 +473,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -833,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH63"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,19 +939,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.63</v>
@@ -972,7 +972,7 @@
         <v>64193.68</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1014,10 +1014,25 @@
         <v>-0.99</v>
       </c>
       <c r="X2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y2">
+        <v>0.59</v>
+      </c>
+      <c r="Z2">
+        <v>14.21</v>
+      </c>
+      <c r="AA2">
+        <v>2.45</v>
       </c>
       <c r="AC2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1025,22 +1040,25 @@
       <c r="AG2">
         <v>0.0125060984864831</v>
       </c>
-      <c r="AH2" t="s">
-        <v>152</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-7.97</v>
@@ -1058,7 +1076,7 @@
         <v>278119.32</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -1100,10 +1118,25 @@
         <v>-1.47</v>
       </c>
       <c r="X3" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y3">
+        <v>0.62</v>
+      </c>
+      <c r="Z3">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.4</v>
       </c>
       <c r="AC3" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1111,22 +1144,25 @@
       <c r="AG3">
         <v>1.36849319934845</v>
       </c>
-      <c r="AH3" t="s">
-        <v>152</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.81</v>
@@ -1144,7 +1180,7 @@
         <v>53390.99</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1186,10 +1222,25 @@
         <v>-0.08</v>
       </c>
       <c r="X4" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y4">
+        <v>-1.14</v>
+      </c>
+      <c r="Z4">
+        <v>7.08</v>
+      </c>
+      <c r="AA4">
+        <v>0.57</v>
       </c>
       <c r="AC4" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1197,22 +1248,25 @@
       <c r="AG4">
         <v>7.551950454711914</v>
       </c>
-      <c r="AH4" t="s">
-        <v>152</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.8</v>
@@ -1230,7 +1284,7 @@
         <v>135418.29</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>17</v>
@@ -1272,10 +1326,25 @@
         <v>-1.2</v>
       </c>
       <c r="X5" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y5">
+        <v>-0.62</v>
+      </c>
+      <c r="Z5">
+        <v>82.3</v>
+      </c>
+      <c r="AA5">
+        <v>0.76</v>
       </c>
       <c r="AC5" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1283,22 +1352,25 @@
       <c r="AG5">
         <v>1.637959241867065</v>
       </c>
-      <c r="AH5" t="s">
-        <v>152</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300115</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-6.7</v>
@@ -1316,7 +1388,7 @@
         <v>462790.4</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1358,10 +1430,25 @@
         <v>-0.62</v>
       </c>
       <c r="X6" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y6">
+        <v>20.01</v>
+      </c>
+      <c r="Z6">
+        <v>37.72</v>
+      </c>
+      <c r="AA6">
+        <v>17.18</v>
       </c>
       <c r="AC6" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1369,22 +1456,25 @@
       <c r="AG6">
         <v>-2.773140907287598</v>
       </c>
-      <c r="AH6" t="s">
-        <v>152</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300207</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.79</v>
@@ -1402,7 +1492,7 @@
         <v>198788.85</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>11</v>
@@ -1443,8 +1533,23 @@
       <c r="W7">
         <v>0.2</v>
       </c>
+      <c r="Y7">
+        <v>3.15</v>
+      </c>
+      <c r="Z7">
+        <v>30.45</v>
+      </c>
+      <c r="AA7">
+        <v>1.16</v>
+      </c>
       <c r="AC7" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1452,22 +1557,25 @@
       <c r="AG7">
         <v>-0.8617082238197327</v>
       </c>
-      <c r="AH7" t="s">
-        <v>152</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300252</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.42</v>
@@ -1485,7 +1593,7 @@
         <v>125056.64</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1527,10 +1635,25 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y8">
+        <v>-1.1</v>
+      </c>
+      <c r="Z8">
+        <v>15.58</v>
+      </c>
+      <c r="AA8">
+        <v>-0.64</v>
       </c>
       <c r="AC8" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1538,22 +1661,25 @@
       <c r="AG8">
         <v>5.368342876434326</v>
       </c>
-      <c r="AH8" t="s">
-        <v>152</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300324</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.44</v>
@@ -1571,7 +1697,7 @@
         <v>171854.94</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1613,10 +1739,25 @@
         <v>0.93</v>
       </c>
       <c r="X9" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y9">
+        <v>-2</v>
+      </c>
+      <c r="Z9">
+        <v>7.58</v>
+      </c>
+      <c r="AA9">
+        <v>0.93</v>
       </c>
       <c r="AC9" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1624,22 +1765,25 @@
       <c r="AG9">
         <v>3.709901332855225</v>
       </c>
-      <c r="AH9" t="s">
-        <v>153</v>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300331</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>4.16</v>
@@ -1657,7 +1801,7 @@
         <v>181105.74</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1699,10 +1843,25 @@
         <v>0.26</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y10">
+        <v>-3.89</v>
+      </c>
+      <c r="Z10">
+        <v>39.83</v>
+      </c>
+      <c r="AA10">
+        <v>-1.14</v>
       </c>
       <c r="AC10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1710,22 +1869,25 @@
       <c r="AG10">
         <v>2.668935537338257</v>
       </c>
-      <c r="AH10" t="s">
-        <v>152</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300418</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6.58</v>
@@ -1743,7 +1905,7 @@
         <v>469548.08</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1785,10 +1947,25 @@
         <v>1.02</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y11">
+        <v>-1.84</v>
+      </c>
+      <c r="Z11">
+        <v>43.38</v>
+      </c>
+      <c r="AA11">
+        <v>-2.21</v>
       </c>
       <c r="AC11" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1796,22 +1973,25 @@
       <c r="AG11">
         <v>-24.78860473632812</v>
       </c>
-      <c r="AH11" t="s">
-        <v>152</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>4.2</v>
@@ -1829,7 +2009,7 @@
         <v>784071.88</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12">
         <v>16</v>
@@ -1871,10 +2051,25 @@
         <v>0.31</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y12">
+        <v>5.92</v>
+      </c>
+      <c r="Z12">
+        <v>58.9</v>
+      </c>
+      <c r="AA12">
+        <v>-0.36</v>
       </c>
       <c r="AC12" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1882,22 +2077,25 @@
       <c r="AG12">
         <v>3.431703329086304</v>
       </c>
-      <c r="AH12" t="s">
-        <v>152</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300457</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.72</v>
@@ -1915,7 +2113,7 @@
         <v>95865.83</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13">
         <v>14</v>
@@ -1957,10 +2155,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y13">
+        <v>1.99</v>
+      </c>
+      <c r="Z13">
+        <v>34.45</v>
+      </c>
+      <c r="AA13">
+        <v>1.23</v>
       </c>
       <c r="AC13" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1968,22 +2181,25 @@
       <c r="AG13">
         <v>4.70113468170166</v>
       </c>
-      <c r="AH13" t="s">
-        <v>152</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300467</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2001,7 +2217,7 @@
         <v>31545.8</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2042,8 +2258,23 @@
       <c r="W14">
         <v>0.2</v>
       </c>
+      <c r="Y14">
+        <v>-2.48</v>
+      </c>
+      <c r="Z14">
+        <v>26.56</v>
+      </c>
+      <c r="AA14">
+        <v>-1.99</v>
+      </c>
       <c r="AC14" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2051,22 +2282,25 @@
       <c r="AG14">
         <v>1.395971655845642</v>
       </c>
-      <c r="AH14" t="s">
-        <v>152</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.8</v>
@@ -2084,7 +2318,7 @@
         <v>77568.36</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15">
         <v>22</v>
@@ -2126,10 +2360,25 @@
         <v>0.18</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y15">
+        <v>0.55</v>
+      </c>
+      <c r="Z15">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="AA15">
+        <v>3.21</v>
       </c>
       <c r="AC15" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2137,22 +2386,25 @@
       <c r="AG15">
         <v>-51.69099807739258</v>
       </c>
-      <c r="AH15" t="s">
-        <v>152</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300475</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>3.24</v>
@@ -2170,7 +2422,7 @@
         <v>229388.26</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -2212,10 +2464,25 @@
         <v>-0.14</v>
       </c>
       <c r="X16" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y16">
+        <v>13.07</v>
+      </c>
+      <c r="Z16">
+        <v>88.64</v>
+      </c>
+      <c r="AA16">
+        <v>13.7</v>
       </c>
       <c r="AC16" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2223,22 +2490,25 @@
       <c r="AG16">
         <v>2.82136344909668</v>
       </c>
-      <c r="AH16" t="s">
-        <v>152</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300507</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-1.82</v>
@@ -2256,7 +2526,7 @@
         <v>117199.35</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2297,8 +2567,23 @@
       <c r="W17">
         <v>-0.73</v>
       </c>
+      <c r="Y17">
+        <v>-1.27</v>
+      </c>
+      <c r="Z17">
+        <v>10.42</v>
+      </c>
+      <c r="AA17">
+        <v>1.66</v>
+      </c>
       <c r="AC17" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2306,22 +2591,25 @@
       <c r="AG17">
         <v>-4.605852127075195</v>
       </c>
-      <c r="AH17" t="s">
-        <v>152</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300521</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-3.72</v>
@@ -2339,7 +2627,7 @@
         <v>42786.45</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2381,10 +2669,25 @@
         <v>-0.25</v>
       </c>
       <c r="X18" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y18">
+        <v>5.43</v>
+      </c>
+      <c r="Z18">
+        <v>34.48</v>
+      </c>
+      <c r="AA18">
+        <v>10.87</v>
       </c>
       <c r="AC18" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2392,22 +2695,25 @@
       <c r="AG18">
         <v>0.5832110047340393</v>
       </c>
-      <c r="AH18" t="s">
-        <v>152</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300602</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.8</v>
@@ -2425,7 +2731,7 @@
         <v>140214.81</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2467,10 +2773,25 @@
         <v>-1.08</v>
       </c>
       <c r="X19" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y19">
+        <v>3.86</v>
+      </c>
+      <c r="Z19">
+        <v>35.61</v>
+      </c>
+      <c r="AA19">
+        <v>2.65</v>
       </c>
       <c r="AC19" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2478,22 +2799,25 @@
       <c r="AG19">
         <v>2.361899614334106</v>
       </c>
-      <c r="AH19" t="s">
-        <v>152</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300604</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.32</v>
@@ -2511,7 +2835,7 @@
         <v>150784.63</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20">
         <v>18</v>
@@ -2553,10 +2877,25 @@
         <v>-0.27</v>
       </c>
       <c r="X20" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y20">
+        <v>4.53</v>
+      </c>
+      <c r="Z20">
+        <v>67.8</v>
+      </c>
+      <c r="AA20">
+        <v>4.82</v>
       </c>
       <c r="AC20" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2564,22 +2903,25 @@
       <c r="AG20">
         <v>2.649850130081177</v>
       </c>
-      <c r="AH20" t="s">
-        <v>152</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300620</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>4.69</v>
@@ -2597,7 +2939,7 @@
         <v>368684.39</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2639,10 +2981,25 @@
         <v>0.01</v>
       </c>
       <c r="X21" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y21">
+        <v>10.27</v>
+      </c>
+      <c r="Z21">
+        <v>144.23</v>
+      </c>
+      <c r="AA21">
+        <v>11.86</v>
       </c>
       <c r="AC21" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2650,22 +3007,25 @@
       <c r="AG21">
         <v>4.317440032958984</v>
       </c>
-      <c r="AH21" t="s">
-        <v>152</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-4.31</v>
@@ -2683,7 +3043,7 @@
         <v>71283.89999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2725,10 +3085,25 @@
         <v>-0.26</v>
       </c>
       <c r="X22" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y22">
+        <v>0.08</v>
+      </c>
+      <c r="Z22">
+        <v>61.47</v>
+      </c>
+      <c r="AA22">
+        <v>2.45</v>
       </c>
       <c r="AC22" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2736,22 +3111,25 @@
       <c r="AG22">
         <v>4.41778039932251</v>
       </c>
-      <c r="AH22" t="s">
-        <v>152</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300684</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.58</v>
@@ -2769,7 +3147,7 @@
         <v>101270.51</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2811,10 +3189,25 @@
         <v>-0.74</v>
       </c>
       <c r="X23" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y23">
+        <v>2.78</v>
+      </c>
+      <c r="Z23">
+        <v>45</v>
+      </c>
+      <c r="AA23">
+        <v>1.6</v>
       </c>
       <c r="AC23" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2822,22 +3215,25 @@
       <c r="AG23">
         <v>1.527538657188416</v>
       </c>
-      <c r="AH23" t="s">
-        <v>152</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300815</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.58</v>
@@ -2855,7 +3251,7 @@
         <v>57028.5</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2897,10 +3293,25 @@
         <v>0.33</v>
       </c>
       <c r="X24" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y24">
+        <v>-1.11</v>
+      </c>
+      <c r="Z24">
+        <v>30.56</v>
+      </c>
+      <c r="AA24">
+        <v>3.17</v>
       </c>
       <c r="AC24" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2908,22 +3319,25 @@
       <c r="AG24">
         <v>6.58529806137085</v>
       </c>
-      <c r="AH24" t="s">
-        <v>152</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300857</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.62</v>
@@ -2941,7 +3355,7 @@
         <v>210558.81</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25">
         <v>21</v>
@@ -2983,10 +3397,25 @@
         <v>0.06</v>
       </c>
       <c r="X25" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y25">
+        <v>7.1</v>
+      </c>
+      <c r="Z25">
+        <v>178.59</v>
+      </c>
+      <c r="AA25">
+        <v>8.880000000000001</v>
       </c>
       <c r="AC25" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2994,22 +3423,25 @@
       <c r="AG25">
         <v>2.006011247634888</v>
       </c>
-      <c r="AH25" t="s">
-        <v>152</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300859</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>7.77</v>
@@ -3027,7 +3459,7 @@
         <v>90452.66</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -3069,10 +3501,25 @@
         <v>0.45</v>
       </c>
       <c r="X26" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y26">
+        <v>-1.54</v>
+      </c>
+      <c r="Z26">
+        <v>56.52</v>
+      </c>
+      <c r="AA26">
+        <v>3.63</v>
       </c>
       <c r="AC26" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3080,22 +3527,25 @@
       <c r="AG26">
         <v>5.222599983215332</v>
       </c>
-      <c r="AH26" t="s">
-        <v>152</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300959</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.31</v>
@@ -3113,7 +3563,7 @@
         <v>91834.48</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3155,10 +3605,25 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="X27" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y27">
+        <v>11</v>
+      </c>
+      <c r="Z27">
+        <v>84.45</v>
+      </c>
+      <c r="AA27">
+        <v>15.26</v>
       </c>
       <c r="AC27" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3166,22 +3631,25 @@
       <c r="AG27">
         <v>2.420294046401978</v>
       </c>
-      <c r="AH27" t="s">
-        <v>152</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300969</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.07</v>
@@ -3199,7 +3667,7 @@
         <v>41284.24</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3241,10 +3709,25 @@
         <v>0.27</v>
       </c>
       <c r="X28" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y28">
+        <v>4.87</v>
+      </c>
+      <c r="Z28">
+        <v>122.98</v>
+      </c>
+      <c r="AA28">
+        <v>8.18</v>
       </c>
       <c r="AC28" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3252,22 +3735,25 @@
       <c r="AG28">
         <v>1.250673770904541</v>
       </c>
-      <c r="AH28" t="s">
-        <v>152</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301002</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-3.78</v>
@@ -3285,7 +3771,7 @@
         <v>22108.8</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29">
         <v>14</v>
@@ -3326,8 +3812,23 @@
       <c r="W29">
         <v>-0.31</v>
       </c>
+      <c r="Y29">
+        <v>2.51</v>
+      </c>
+      <c r="Z29">
+        <v>42.3</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
       <c r="AC29" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3335,22 +3836,25 @@
       <c r="AG29">
         <v>2.452761888504028</v>
       </c>
-      <c r="AH29" t="s">
-        <v>152</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301008</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.58</v>
@@ -3368,7 +3872,7 @@
         <v>52312.53</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3410,10 +3914,25 @@
         <v>0.35</v>
       </c>
       <c r="X30" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y30">
+        <v>12.79</v>
+      </c>
+      <c r="Z30">
+        <v>49.79</v>
+      </c>
+      <c r="AA30">
+        <v>17.65</v>
       </c>
       <c r="AC30" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3421,22 +3940,25 @@
       <c r="AG30">
         <v>1.199325084686279</v>
       </c>
-      <c r="AH30" t="s">
-        <v>152</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301012</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-1.59</v>
@@ -3454,7 +3976,7 @@
         <v>48357.19</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3496,10 +4018,25 @@
         <v>-1.63</v>
       </c>
       <c r="X31" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y31">
+        <v>-4.89</v>
+      </c>
+      <c r="Z31">
+        <v>26.2</v>
+      </c>
+      <c r="AA31">
+        <v>-1.84</v>
       </c>
       <c r="AC31" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3507,22 +4044,25 @@
       <c r="AG31">
         <v>3.747552394866943</v>
       </c>
-      <c r="AH31" t="s">
-        <v>152</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301013</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-6.98</v>
@@ -3540,7 +4080,7 @@
         <v>173550.09</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3582,10 +4122,25 @@
         <v>-1.73</v>
       </c>
       <c r="X32" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y32">
+        <v>14.62</v>
+      </c>
+      <c r="Z32">
+        <v>31.2</v>
+      </c>
+      <c r="AA32">
+        <v>14.75</v>
       </c>
       <c r="AC32" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3593,22 +4148,25 @@
       <c r="AG32">
         <v>5.641566753387451</v>
       </c>
-      <c r="AH32" t="s">
-        <v>152</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301018</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-2.99</v>
@@ -3626,7 +4184,7 @@
         <v>81003.74000000001</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3668,10 +4226,25 @@
         <v>0.12</v>
       </c>
       <c r="X33" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y33">
+        <v>6.45</v>
+      </c>
+      <c r="Z33">
+        <v>81.64</v>
+      </c>
+      <c r="AA33">
+        <v>6.27</v>
       </c>
       <c r="AC33" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3679,22 +4252,25 @@
       <c r="AG33">
         <v>3.293322801589966</v>
       </c>
-      <c r="AH33" t="s">
-        <v>152</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301123</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>1.22</v>
@@ -3712,7 +4288,7 @@
         <v>37035.3</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -3754,10 +4330,25 @@
         <v>0.12</v>
       </c>
       <c r="X34" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y34">
+        <v>-2.25</v>
+      </c>
+      <c r="Z34">
+        <v>51.3</v>
+      </c>
+      <c r="AA34">
+        <v>1.18</v>
       </c>
       <c r="AC34" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3765,22 +4356,25 @@
       <c r="AG34">
         <v>2.970521450042725</v>
       </c>
-      <c r="AH34" t="s">
-        <v>152</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301150</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>5.78</v>
@@ -3798,7 +4392,7 @@
         <v>69432.67</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>14</v>
@@ -3840,10 +4434,25 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="X35" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y35">
+        <v>4.05</v>
+      </c>
+      <c r="Z35">
+        <v>45.38</v>
+      </c>
+      <c r="AA35">
+        <v>7.79</v>
       </c>
       <c r="AC35" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3851,22 +4460,25 @@
       <c r="AG35">
         <v>3.43943452835083</v>
       </c>
-      <c r="AH35" t="s">
-        <v>152</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301183</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>8.390000000000001</v>
@@ -3884,7 +4496,7 @@
         <v>88282.7</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -3926,10 +4538,25 @@
         <v>0.47</v>
       </c>
       <c r="X36" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y36">
+        <v>-0.31</v>
+      </c>
+      <c r="Z36">
+        <v>110.81</v>
+      </c>
+      <c r="AA36">
+        <v>-1.76</v>
       </c>
       <c r="AC36" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3937,22 +4564,25 @@
       <c r="AG36">
         <v>2.092983484268188</v>
       </c>
-      <c r="AH36" t="s">
-        <v>152</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301307</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-1.07</v>
@@ -3970,7 +4600,7 @@
         <v>55511.35</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -4012,10 +4642,25 @@
         <v>-0.35</v>
       </c>
       <c r="X37" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y37">
+        <v>-0.1</v>
+      </c>
+      <c r="Z37">
+        <v>41.8</v>
+      </c>
+      <c r="AA37">
+        <v>3.06</v>
       </c>
       <c r="AC37" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4023,22 +4668,25 @@
       <c r="AG37">
         <v>15.83273983001709</v>
       </c>
-      <c r="AH37" t="s">
-        <v>152</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301308</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>9.869999999999999</v>
@@ -4056,7 +4704,7 @@
         <v>215937.48</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4098,10 +4746,25 @@
         <v>0.16</v>
       </c>
       <c r="X38" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y38">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Z38">
+        <v>145.15</v>
+      </c>
+      <c r="AA38">
+        <v>15.9</v>
       </c>
       <c r="AC38" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4109,22 +4772,25 @@
       <c r="AG38">
         <v>-5.283171653747559</v>
       </c>
-      <c r="AH38" t="s">
-        <v>152</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301345</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-7.72</v>
@@ -4142,7 +4808,7 @@
         <v>34513.84</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4183,8 +4849,23 @@
       <c r="W39">
         <v>0.01</v>
       </c>
+      <c r="Y39">
+        <v>3.46</v>
+      </c>
+      <c r="Z39">
+        <v>229.76</v>
+      </c>
+      <c r="AA39">
+        <v>2.67</v>
+      </c>
       <c r="AC39" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4192,22 +4873,25 @@
       <c r="AG39">
         <v>-7.371908187866211</v>
       </c>
-      <c r="AH39" t="s">
-        <v>152</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301413</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-9.15</v>
@@ -4225,7 +4909,7 @@
         <v>79000.31</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K40">
         <v>21</v>
@@ -4267,10 +4951,25 @@
         <v>-0.17</v>
       </c>
       <c r="X40" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y40">
+        <v>2.75</v>
+      </c>
+      <c r="Z40">
+        <v>180.32</v>
+      </c>
+      <c r="AA40">
+        <v>5.57</v>
       </c>
       <c r="AC40" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4278,22 +4977,25 @@
       <c r="AG40">
         <v>0.9342723488807678</v>
       </c>
-      <c r="AH40" t="s">
-        <v>152</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301488</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-11.48</v>
@@ -4311,7 +5013,7 @@
         <v>112488.79</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K41">
         <v>18</v>
@@ -4353,10 +5055,25 @@
         <v>-3.24</v>
       </c>
       <c r="X41" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y41">
+        <v>0.12</v>
+      </c>
+      <c r="Z41">
+        <v>189.19</v>
+      </c>
+      <c r="AA41">
+        <v>2.26</v>
       </c>
       <c r="AC41" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4364,22 +5081,25 @@
       <c r="AG41">
         <v>4.553715229034424</v>
       </c>
-      <c r="AH41" t="s">
-        <v>152</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301489</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-0.8</v>
@@ -4397,7 +5117,7 @@
         <v>40114.04</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4439,10 +5159,25 @@
         <v>-0.13</v>
       </c>
       <c r="X42" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y42">
+        <v>11.75</v>
+      </c>
+      <c r="Z42">
+        <v>268</v>
+      </c>
+      <c r="AA42">
+        <v>16.92</v>
       </c>
       <c r="AC42" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4450,22 +5185,25 @@
       <c r="AG42">
         <v>2.921550035476685</v>
       </c>
-      <c r="AH42" t="s">
-        <v>152</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688028</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-5.21</v>
@@ -4483,7 +5221,7 @@
         <v>32183.02</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -4525,10 +5263,25 @@
         <v>-0.16</v>
       </c>
       <c r="X43" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y43">
+        <v>13.19</v>
+      </c>
+      <c r="Z43">
+        <v>51.88</v>
+      </c>
+      <c r="AA43">
+        <v>14.98</v>
       </c>
       <c r="AC43" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4536,22 +5289,25 @@
       <c r="AG43">
         <v>3.004493951797485</v>
       </c>
-      <c r="AH43" t="s">
-        <v>152</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688041</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.72</v>
@@ -4569,7 +5325,7 @@
         <v>811762.89</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4611,10 +5367,25 @@
         <v>-0.12</v>
       </c>
       <c r="X44" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y44">
+        <v>10.7</v>
+      </c>
+      <c r="Z44">
+        <v>274.78</v>
+      </c>
+      <c r="AA44">
+        <v>14.68</v>
       </c>
       <c r="AC44" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4622,22 +5393,25 @@
       <c r="AG44">
         <v>33.6251220703125</v>
       </c>
-      <c r="AH44" t="s">
-        <v>152</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688110</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.09</v>
@@ -4655,7 +5429,7 @@
         <v>264189.24</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4697,10 +5471,25 @@
         <v>-0.33</v>
       </c>
       <c r="X45" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y45">
+        <v>9.98</v>
+      </c>
+      <c r="Z45">
+        <v>123.2</v>
+      </c>
+      <c r="AA45">
+        <v>5.39</v>
       </c>
       <c r="AC45" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4708,22 +5497,25 @@
       <c r="AG45">
         <v>0.8952569365501404</v>
       </c>
-      <c r="AH45" t="s">
-        <v>152</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688135</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-3.27</v>
@@ -4741,7 +5533,7 @@
         <v>74152.99000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>14</v>
@@ -4783,10 +5575,25 @@
         <v>-0.93</v>
       </c>
       <c r="X46" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y46">
+        <v>5.46</v>
+      </c>
+      <c r="Z46">
+        <v>36.58</v>
+      </c>
+      <c r="AA46">
+        <v>6.68</v>
       </c>
       <c r="AC46" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4794,22 +5601,25 @@
       <c r="AG46">
         <v>1.607853531837463</v>
       </c>
-      <c r="AH46" t="s">
-        <v>152</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688147</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.68</v>
@@ -4827,7 +5637,7 @@
         <v>45214.55</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <v>25</v>
@@ -4869,10 +5679,25 @@
         <v>-0.27</v>
       </c>
       <c r="X47" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y47">
+        <v>0.83</v>
+      </c>
+      <c r="Z47">
+        <v>48.59</v>
+      </c>
+      <c r="AA47">
+        <v>0.6</v>
       </c>
       <c r="AC47" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4880,22 +5705,25 @@
       <c r="AG47">
         <v>5.920024871826172</v>
       </c>
-      <c r="AH47" t="s">
-        <v>152</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688167</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.21</v>
@@ -4913,7 +5741,7 @@
         <v>117469.81</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>11</v>
@@ -4955,10 +5783,25 @@
         <v>0.35</v>
       </c>
       <c r="X48" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y48">
+        <v>-2.53</v>
+      </c>
+      <c r="Z48">
+        <v>181.99</v>
+      </c>
+      <c r="AA48">
+        <v>2.14</v>
       </c>
       <c r="AC48" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4966,22 +5809,25 @@
       <c r="AG48">
         <v>0.7280799150466919</v>
       </c>
-      <c r="AH48" t="s">
-        <v>152</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688195</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>14.26</v>
@@ -4999,7 +5845,7 @@
         <v>140089.19</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>25</v>
@@ -5041,10 +5887,25 @@
         <v>0.33</v>
       </c>
       <c r="X49" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y49">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Z49">
+        <v>143.78</v>
+      </c>
+      <c r="AA49">
+        <v>9.460000000000001</v>
       </c>
       <c r="AC49" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5052,22 +5913,25 @@
       <c r="AG49">
         <v>7.881621360778809</v>
       </c>
-      <c r="AH49" t="s">
-        <v>152</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688205</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>9.69</v>
@@ -5085,7 +5949,7 @@
         <v>260748.26</v>
       </c>
       <c r="J50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5127,10 +5991,25 @@
         <v>-0.49</v>
       </c>
       <c r="X50" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y50">
+        <v>-3.9</v>
+      </c>
+      <c r="Z50">
+        <v>161.8</v>
+      </c>
+      <c r="AA50">
+        <v>5.06</v>
       </c>
       <c r="AC50" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5138,22 +6017,25 @@
       <c r="AG50">
         <v>38.90397262573242</v>
       </c>
-      <c r="AH50" t="s">
-        <v>152</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688228</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>5.19</v>
@@ -5171,7 +6053,7 @@
         <v>72318.97</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K51">
         <v>8</v>
@@ -5213,10 +6095,25 @@
         <v>-0.09</v>
       </c>
       <c r="X51" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y51">
+        <v>14.56</v>
+      </c>
+      <c r="Z51">
+        <v>217</v>
+      </c>
+      <c r="AA51">
+        <v>18.51</v>
       </c>
       <c r="AC51" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5224,22 +6121,25 @@
       <c r="AG51">
         <v>9.558514595031738</v>
       </c>
-      <c r="AH51" t="s">
-        <v>152</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688347</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>2.8</v>
@@ -5257,7 +6157,7 @@
         <v>155276.28</v>
       </c>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K52">
         <v>7</v>
@@ -5299,10 +6199,25 @@
         <v>0.19</v>
       </c>
       <c r="X52" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>86.67</v>
+      </c>
+      <c r="AA52">
+        <v>2.21</v>
       </c>
       <c r="AC52" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5310,22 +6225,25 @@
       <c r="AG52">
         <v>3.443042278289795</v>
       </c>
-      <c r="AH52" t="s">
-        <v>152</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688400</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>4.36</v>
@@ -5343,7 +6261,7 @@
         <v>156214.96</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K53">
         <v>7</v>
@@ -5384,8 +6302,23 @@
       <c r="W53">
         <v>0.12</v>
       </c>
+      <c r="Y53">
+        <v>5.7</v>
+      </c>
+      <c r="Z53">
+        <v>57.5</v>
+      </c>
+      <c r="AA53">
+        <v>10.15</v>
+      </c>
       <c r="AC53" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5393,22 +6326,25 @@
       <c r="AG53">
         <v>4.204541206359863</v>
       </c>
-      <c r="AH53" t="s">
-        <v>152</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688411</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.15</v>
@@ -5426,7 +6362,7 @@
         <v>27770.22</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -5468,10 +6404,25 @@
         <v>-0.28</v>
       </c>
       <c r="X54" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y54">
+        <v>7.65</v>
+      </c>
+      <c r="Z54">
+        <v>218.77</v>
+      </c>
+      <c r="AA54">
+        <v>10.32</v>
       </c>
       <c r="AC54" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5479,22 +6430,25 @@
       <c r="AG54">
         <v>1.084726095199585</v>
       </c>
-      <c r="AH54" t="s">
-        <v>152</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688498</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>0.22</v>
@@ -5512,7 +6466,7 @@
         <v>124939.28</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5554,10 +6508,25 @@
         <v>-0.11</v>
       </c>
       <c r="X55" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y55">
+        <v>-1.74</v>
+      </c>
+      <c r="Z55">
+        <v>408.76</v>
+      </c>
+      <c r="AA55">
+        <v>4.63</v>
       </c>
       <c r="AC55" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5565,22 +6534,25 @@
       <c r="AG55">
         <v>-3.527325630187988</v>
       </c>
-      <c r="AH55" t="s">
-        <v>152</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688502</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>6.02</v>
@@ -5598,7 +6570,7 @@
         <v>80555.97</v>
       </c>
       <c r="J56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5640,10 +6612,25 @@
         <v>0.59</v>
       </c>
       <c r="X56" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y56">
+        <v>-1.52</v>
+      </c>
+      <c r="Z56">
+        <v>456.6</v>
+      </c>
+      <c r="AA56">
+        <v>-2.72</v>
       </c>
       <c r="AC56" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5651,22 +6638,25 @@
       <c r="AG56">
         <v>5.819543838500977</v>
       </c>
-      <c r="AH56" t="s">
-        <v>152</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688593</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>2.69</v>
@@ -5684,7 +6674,7 @@
         <v>39028.61</v>
       </c>
       <c r="J57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5726,10 +6716,25 @@
         <v>-0.06</v>
       </c>
       <c r="X57" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y57">
+        <v>-8.85</v>
+      </c>
+      <c r="Z57">
+        <v>25.17</v>
+      </c>
+      <c r="AA57">
+        <v>-3.01</v>
       </c>
       <c r="AC57" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5737,22 +6742,25 @@
       <c r="AG57">
         <v>0.4487479031085968</v>
       </c>
-      <c r="AH57" t="s">
-        <v>152</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688627</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>3.73</v>
@@ -5770,7 +6778,7 @@
         <v>60607.35</v>
       </c>
       <c r="J58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5811,8 +6819,23 @@
       <c r="W58">
         <v>0.06</v>
       </c>
+      <c r="Y58">
+        <v>4.07</v>
+      </c>
+      <c r="Z58">
+        <v>157</v>
+      </c>
+      <c r="AA58">
+        <v>4.81</v>
+      </c>
       <c r="AC58" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5820,22 +6843,25 @@
       <c r="AG58">
         <v>2.870218753814697</v>
       </c>
-      <c r="AH58" t="s">
-        <v>152</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688629</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>1.21</v>
@@ -5853,7 +6879,7 @@
         <v>325123.02</v>
       </c>
       <c r="J59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5895,10 +6921,25 @@
         <v>-1.72</v>
       </c>
       <c r="X59" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y59">
+        <v>2.62</v>
+      </c>
+      <c r="Z59">
+        <v>111.11</v>
+      </c>
+      <c r="AA59">
+        <v>3.36</v>
       </c>
       <c r="AC59" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5906,22 +6947,25 @@
       <c r="AG59">
         <v>18.54772758483887</v>
       </c>
-      <c r="AH59" t="s">
-        <v>152</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688630</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-1.9</v>
@@ -5939,7 +6983,7 @@
         <v>88264.8</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5981,10 +7025,25 @@
         <v>0.05</v>
       </c>
       <c r="X60" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y60">
+        <v>0.02</v>
+      </c>
+      <c r="Z60">
+        <v>154.98</v>
+      </c>
+      <c r="AA60">
+        <v>1.27</v>
       </c>
       <c r="AC60" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5992,22 +7051,25 @@
       <c r="AG60">
         <v>46.42495727539062</v>
       </c>
-      <c r="AH60" t="s">
-        <v>152</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688678</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>1.03</v>
@@ -6025,7 +7087,7 @@
         <v>35104.49</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6066,8 +7128,23 @@
       <c r="W61">
         <v>0.24</v>
       </c>
+      <c r="Y61">
+        <v>12.27</v>
+      </c>
+      <c r="Z61">
+        <v>36.78</v>
+      </c>
+      <c r="AA61">
+        <v>13.66</v>
+      </c>
       <c r="AC61" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6075,22 +7152,25 @@
       <c r="AG61">
         <v>1.813573360443115</v>
       </c>
-      <c r="AH61" t="s">
-        <v>152</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688766</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>4.99</v>
@@ -6108,7 +7188,7 @@
         <v>114148.92</v>
       </c>
       <c r="J62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -6150,10 +7230,25 @@
         <v>-0.55</v>
       </c>
       <c r="X62" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y62">
+        <v>3.06</v>
+      </c>
+      <c r="Z62">
+        <v>112.6</v>
+      </c>
+      <c r="AA62">
+        <v>4.82</v>
       </c>
       <c r="AC62" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6161,22 +7256,25 @@
       <c r="AG62">
         <v>3.107600450515747</v>
       </c>
-      <c r="AH62" t="s">
-        <v>152</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688981</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.23</v>
@@ -6194,7 +7292,7 @@
         <v>1214624.97</v>
       </c>
       <c r="J63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -6235,8 +7333,23 @@
       <c r="W63">
         <v>0.13</v>
       </c>
+      <c r="Y63">
+        <v>6.25</v>
+      </c>
+      <c r="Z63">
+        <v>129.83</v>
+      </c>
+      <c r="AA63">
+        <v>3.97</v>
+      </c>
       <c r="AC63" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6244,8 +7357,11 @@
       <c r="AG63">
         <v>4.894885063171387</v>
       </c>
-      <c r="AH63" t="s">
-        <v>152</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
